--- a/时间树(伪).xlsx
+++ b/时间树(伪).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>代办标记</t>
   </si>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>做一题LeetCode简单题熟悉下插件</t>
-  </si>
-  <si>
-    <t>下午的话打算做完这题就休息锻炼一会儿
-今晚准备迁移猫猫头的功能给二号机</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1027,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1136,10 +1132,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="2:2">
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
+    <row r="14" spans="2:2">
+      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/时间树(伪).xlsx
+++ b/时间树(伪).xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>事项内容</t>
+  </si>
   <si>
     <t>代办标记</t>
   </si>
   <si>
     <t>代办内容</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>事项内容</t>
   </si>
   <si>
     <t>安装调试pcrjjc插件</t>
@@ -35,10 +35,8 @@
 里的库,检查了环境变量,发现调用的该环境与环境变量中的一致,但是修改环境变量之后依然调用了原先环境内的库,准备暂时先用Pycharm将工作区域作为项目打开设置项目环境,后续重启电脑再试试VSCode里有没有变化</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>重启电脑再试试VSCode里有没有变化:环境的调用有没有变过来</t>
+    <t>重启电脑再试试VSCode里有没有变化:环境的调用有没有变过来
+(已完成,确实如此,重启后调用就正常了)</t>
   </si>
   <si>
     <t>为了能从VSCode中快捷使用系统默认应用打开VSCode不支持打开的文件而安装了open插件
@@ -56,17 +54,38 @@
   </si>
   <si>
     <t>做一题LeetCode简单题熟悉下插件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">因为本地运行hoshino时Question模块报错 SQLite driver not installed!
+故而在本地Windows上安装SQLite
+无果,由于添加了环境变量故而试着重启一下
+无果;然后又试着pip install pysqlite3,无果
+奇怪的是将项目在Pycharm中运行时缺不会报错
+</t>
+  </si>
+  <si>
+    <t>尝试使用nonebot</t>
+  </si>
+  <si>
+    <t>查看go-cqhttp如何进行多QQ的配置-&gt;在已关闭的issue中找到了答案-&gt;不支持</t>
+  </si>
+  <si>
+    <t>继续试用nonebot</t>
+  </si>
+  <si>
+    <t>nonebot最小实例测试成功</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,6 +96,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -85,14 +112,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,6 +145,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,16 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,69 +219,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +462,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,41 +512,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,21 +555,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -544,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,137 +575,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,14 +715,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1024,121 +1052,360 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
-    <col min="2" max="2" width="80.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="1"/>
-    <col min="4" max="4" width="62.2222222222222" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="5.77777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" style="1"/>
+    <col min="3" max="3" width="80.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88888888888889" style="1"/>
+    <col min="5" max="5" width="62.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
         <v>2.27</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="3">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="57.6" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3">
+        <v>0.743055555555556</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3">
+        <v>0.753472222222222</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="86.4" spans="1:5">
+      <c r="A10" s="5">
+        <v>2.28</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.928472222222222</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6">
+        <v>0.974305555555556</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6">
+        <v>0.977083333333333</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" ht="57.6" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" ht="16" customHeight="1" spans="1:4">
-      <c r="A6" s="3">
-        <v>0.71875</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3">
-        <v>0.743055555555556</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3">
-        <v>0.753472222222222</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="8"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/时间树(伪).xlsx
+++ b/时间树(伪).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>时间</t>
   </si>
@@ -74,6 +74,25 @@
   </si>
   <si>
     <t>nonebot最小实例测试成功</t>
+  </si>
+  <si>
+    <t>浏览Github消息,群消息;
+记录昨天使用steam工具箱的经历</t>
+  </si>
+  <si>
+    <t>整理C++群内资源</t>
+  </si>
+  <si>
+    <t>整理QQ接收文件</t>
+  </si>
+  <si>
+    <t>安装,调试pcr_run并写wiki</t>
+  </si>
+  <si>
+    <t>还在写wiki的辅助文档</t>
+  </si>
+  <si>
+    <t>总算基本写完了wiki</t>
   </si>
 </sst>
 </file>
@@ -82,10 +101,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,6 +112,65 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,77 +183,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,46 +221,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,37 +268,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,19 +388,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,128 +452,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -458,10 +477,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -497,17 +588,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,35 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -563,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -721,14 +777,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,7 +1111,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1165,87 +1221,137 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="86.4" spans="1:5">
-      <c r="A10" s="5">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
         <v>2.28</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>0.928472222222222</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
         <v>0.974305555555556</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3">
         <v>0.977083333333333</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3">
         <v>0.979166666666667</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="8"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" ht="28.8" spans="1:5">
+      <c r="A16" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3">
+        <v>0.93125</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="8"/>
@@ -1401,9 +1507,10 @@
       <c r="B72" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C10:C11"/>
   </mergeCells>

--- a/时间树(伪).xlsx
+++ b/时间树(伪).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="22368" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>时间</t>
   </si>
@@ -94,17 +94,60 @@
   <si>
     <t>总算基本写完了wiki</t>
   </si>
+  <si>
+    <t>8:00-10:00</t>
+  </si>
+  <si>
+    <t>学习编译原理,结合MarginNote食用</t>
+  </si>
+  <si>
+    <t>10:00-12:30</t>
+  </si>
+  <si>
+    <t>利用七牛云免费对象存储+阿里云域名+PicGo+VSCode插件
+实现个人图床以及便捷的markdown图片链接生成</t>
+  </si>
+  <si>
+    <t>18:20-20:00</t>
+  </si>
+  <si>
+    <t>尝试使用欧路词典第三方词典使用以及其他欧路词典的使用方法</t>
+  </si>
+  <si>
+    <t>21:50-23:00</t>
+  </si>
+  <si>
+    <t>装Matlab</t>
+  </si>
+  <si>
+    <t>7:00-10:30</t>
+  </si>
+  <si>
+    <t>嵌入式系统开发板测试</t>
+  </si>
+  <si>
+    <t>10:30-13:30</t>
+  </si>
+  <si>
+    <t>编译原理学习</t>
+  </si>
+  <si>
+    <t>16:15-17:55</t>
+  </si>
+  <si>
+    <t>嵌入式系统STM32F4体系架构收尾;GPIO基本结构和工作方式,GPIO寄存器结构</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,7 +159,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,53 +232,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,15 +270,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,37 +311,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,150 +491,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -477,82 +520,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -573,6 +544,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -584,6 +566,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,137 +637,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,13 +783,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1110,8 +1113,8 @@
   <sheetPr/>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1286,7 +1289,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="28.8" spans="1:5">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>3.2</v>
       </c>
       <c r="B16" s="3">
@@ -1299,7 +1302,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="6"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="3">
         <v>0.5</v>
       </c>
@@ -1310,7 +1313,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="3">
         <v>0.520833333333333</v>
       </c>
@@ -1321,7 +1324,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="6"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="3">
         <v>0.6875</v>
       </c>
@@ -1332,7 +1335,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="6"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="3">
         <v>0.71875</v>
       </c>
@@ -1343,7 +1346,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="7"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="3">
         <v>0.93125</v>
       </c>
@@ -1353,164 +1356,229 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="8"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" ht="28.8" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5">
+        <v>3.11</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="8"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="8"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="8"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="8"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="8"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="8"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="8"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="8"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="8"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="8"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="8"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="8"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="8"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="8"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="8"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="8"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="8"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="8"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="8"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="8"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="8"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="8"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="8"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="8"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="8"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="8"/>
+      <c r="B62" s="7"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="8"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="8"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="8"/>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="8"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="8"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="8"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="8"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="8"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="8"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="8"/>
+      <c r="B72" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C10:C11"/>
   </mergeCells>

--- a/时间树(伪).xlsx
+++ b/时间树(伪).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>时间</t>
   </si>
@@ -137,16 +137,29 @@
   <si>
     <t>嵌入式系统STM32F4体系架构收尾;GPIO基本结构和工作方式,GPIO寄存器结构</t>
   </si>
+  <si>
+    <t>13:45-14:00</t>
+  </si>
+  <si>
+    <t>坚果云WebDav</t>
+  </si>
+  <si>
+    <t>15:00-15:30</t>
+  </si>
+  <si>
+    <t>DropBox,GoogleDrive;
+自动同步GoodNotes,Notability</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="20">
@@ -165,6 +178,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -173,7 +223,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,57 +247,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -272,15 +279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +300,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,6 +324,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,175 +492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,36 +533,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -570,11 +572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,17 +611,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +638,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,137 +650,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,6 +801,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,7 +1130,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1403,182 +1419,198 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>3.11</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5">
         <v>3.12</v>
       </c>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="7"/>
+      <c r="B29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" ht="28.8" spans="1:5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="7"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="7"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="7"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="7"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="7"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="7"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="7"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="7"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="7"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="7"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="7"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="7"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="7"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="7"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="7"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="7"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="7"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="7"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="7"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="7"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="7"/>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="7"/>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="7"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="7"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="7"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="7"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="7"/>
+      <c r="B63" s="8"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="7"/>
+      <c r="B64" s="8"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="7"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="7"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="7"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="7"/>
+      <c r="B68" s="8"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="7"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="7"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="7"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C10:C11"/>
   </mergeCells>

--- a/时间树(伪).xlsx
+++ b/时间树(伪).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>时间</t>
   </si>
@@ -149,6 +149,12 @@
   <si>
     <t>DropBox,GoogleDrive;
 自动同步GoodNotes,Notability</t>
+  </si>
+  <si>
+    <t>很蠢,一天的SYB</t>
+  </si>
+  <si>
+    <t>19:00-20:30</t>
   </si>
 </sst>
 </file>
@@ -158,8 +164,8 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="20">
@@ -172,7 +178,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,134 +314,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -324,25 +330,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,132 +480,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,24 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,26 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +569,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -583,21 +589,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +613,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -638,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,151 +656,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,7 +1127,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1454,154 +1451,165 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>3.12</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" ht="28.8" spans="1:5">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="8"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="8"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="8"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="8"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="8"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="8"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="8"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="8"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="8"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="8"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="8"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="8"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="8"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="8"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="8"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="8"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="8"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="8"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="8"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="8"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="8"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="8"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="8"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="8"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="8"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="8"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="8"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="8"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="8"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="8"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="8"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="8"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="8"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="8"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="8"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="8"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="8"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="8"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="8"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="8"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="8"/>
+      <c r="B72" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/时间树(伪).xlsx
+++ b/时间树(伪).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>时间</t>
   </si>
@@ -154,7 +154,11 @@
     <t>很蠢,一天的SYB</t>
   </si>
   <si>
-    <t>19:00-20:30</t>
+    <t>19:00-21:30</t>
+  </si>
+  <si>
+    <t>LeetCode第3题 无重复的最长字符串
+(555,wsfw)</t>
   </si>
 </sst>
 </file>
@@ -162,11 +166,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -178,7 +182,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,14 +257,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -216,14 +288,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,90 +324,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -330,19 +334,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,49 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,25 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,79 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,17 +543,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,15 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -593,22 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,9 +623,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,142 +660,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1126,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1474,142 +1487,149 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
         <v>3.13</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" ht="28.8" spans="1:5">
+      <c r="A32" s="5">
         <v>3.14</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="C32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="5"/>
+      <c r="B33" s="8"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="5"/>
+      <c r="B34" s="8"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="5"/>
+      <c r="B35" s="8"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="5"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="5"/>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="5"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="5"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="5"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="5"/>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="5"/>
+      <c r="B42" s="8"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="5"/>
+      <c r="B43" s="8"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="5"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="5"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="5"/>
+      <c r="B46" s="8"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="5"/>
+      <c r="B47" s="8"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="5"/>
+      <c r="B48" s="8"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="5"/>
+      <c r="B49" s="8"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="5"/>
+      <c r="B50" s="8"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="5"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="5"/>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="5"/>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="5"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="5"/>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="5"/>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="5"/>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="5"/>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="5"/>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="5"/>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="5"/>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="5"/>
+      <c r="B62" s="8"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="5"/>
+      <c r="B63" s="8"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="5"/>
+      <c r="B64" s="8"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="5"/>
+      <c r="B65" s="8"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="5"/>
+      <c r="B66" s="8"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="5"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="5"/>
+      <c r="B68" s="8"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="5"/>
+      <c r="B69" s="8"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="5"/>
+      <c r="B70" s="8"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="5"/>
+      <c r="B71" s="8"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="5"/>
+      <c r="B72" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/时间树(伪).xlsx
+++ b/时间树(伪).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>时间</t>
   </si>
@@ -160,17 +160,30 @@
     <t>LeetCode第3题 无重复的最长字符串
 (555,wsfw)</t>
   </si>
+  <si>
+    <t>7:00-9:30</t>
+  </si>
+  <si>
+    <t>LeetCode第148题排序链表</t>
+  </si>
+  <si>
+    <t>9:30-12:30</t>
+  </si>
+  <si>
+    <t>拟建学生-课程-课程时间数据库
+收集信息</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -189,7 +202,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,97 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,29 +337,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -334,79 +347,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,31 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,74 +531,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -543,35 +556,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +608,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,137 +699,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,14 +845,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1140,7 +1176,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1499,146 +1535,165 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" ht="28.8" spans="1:5">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>3.14</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="8"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5">
+        <v>3.15</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" ht="28.8" spans="1:5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="8"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="8"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="8"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="8"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="8"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="8"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="8"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="8"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="8"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="8"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="8"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="8"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="8"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="8"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="8"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="8"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="8"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="8"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="8"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="8"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="8"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="8"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="8"/>
+      <c r="B62" s="7"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="8"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="8"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="8"/>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="8"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="8"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="8"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="8"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="8"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="8"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="8"/>
+      <c r="B72" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C10:C11"/>
   </mergeCells>

--- a/时间树(伪).xlsx
+++ b/时间树(伪).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>时间</t>
   </si>
@@ -172,6 +172,18 @@
   <si>
     <t>拟建学生-课程-课程时间数据库
 收集信息</t>
+  </si>
+  <si>
+    <t>17:00-18:00</t>
+  </si>
+  <si>
+    <t>学代会杂务</t>
+  </si>
+  <si>
+    <t>18:30-21:45</t>
+  </si>
+  <si>
+    <t>机器学习</t>
   </si>
 </sst>
 </file>
@@ -180,9 +192,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="20">
@@ -201,6 +213,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -209,7 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +250,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -230,8 +265,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,17 +304,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,10 +336,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,60 +349,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -347,13 +359,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,169 +479,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,17 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +618,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -627,20 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,8 +686,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,137 +711,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,6 +858,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1176,7 +1200,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1571,122 +1595,140 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="7"/>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7">
+        <v>4.18</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="7"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="7"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="7"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="7"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="7"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="7"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="7"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="7"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="7"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="7"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="7"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="7"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="7"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="7"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="7"/>
+      <c r="B51" s="11"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="7"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="7"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="7"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="7"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="7"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="7"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="7"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="7"/>
+      <c r="B59" s="11"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="7"/>
+      <c r="B60" s="11"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="7"/>
+      <c r="B61" s="11"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="7"/>
+      <c r="B62" s="11"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="7"/>
+      <c r="B63" s="11"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="7"/>
+      <c r="B64" s="11"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="7"/>
+      <c r="B65" s="11"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="7"/>
+      <c r="B66" s="11"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="7"/>
+      <c r="B67" s="11"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="7"/>
+      <c r="B68" s="11"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="7"/>
+      <c r="B69" s="11"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="7"/>
+      <c r="B70" s="11"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="7"/>
+      <c r="B71" s="11"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="7"/>
+      <c r="B72" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A16:A21"/>
@@ -1694,6 +1736,7 @@
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C10:C11"/>
   </mergeCells>
